--- a/血肿1a_100人拟合优度.xlsx
+++ b/血肿1a_100人拟合优度.xlsx
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9786981400356388</v>
+        <v>0.9786981400356464</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9946446437116185</v>
+        <v>0.994644643711621</v>
       </c>
     </row>
     <row r="4">
@@ -461,7 +461,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9999999999999984</v>
+        <v>0.999999999999997</v>
       </c>
     </row>
     <row r="5">
@@ -469,7 +469,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
     </row>
     <row r="6">
@@ -477,7 +477,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.000000000000002</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -485,7 +485,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9942967838748168</v>
+        <v>0.9942967838748188</v>
       </c>
     </row>
     <row r="8">
@@ -493,7 +493,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9832020285336771</v>
+        <v>0.983202028533679</v>
       </c>
     </row>
     <row r="9">
@@ -501,7 +501,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9999999999999731</v>
+        <v>0.9999999999999838</v>
       </c>
     </row>
     <row r="10">
@@ -509,7 +509,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.000000000000002</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -517,7 +517,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9999942723267961</v>
+        <v>0.9999942723267696</v>
       </c>
     </row>
     <row r="12">
@@ -525,7 +525,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.000000000000001</v>
+        <v>0.999999999999998</v>
       </c>
     </row>
     <row r="13">
@@ -533,7 +533,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9881741069068776</v>
+        <v>0.9881741069068832</v>
       </c>
     </row>
     <row r="14">
@@ -541,7 +541,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9988799952506171</v>
+        <v>0.9988799952506147</v>
       </c>
     </row>
     <row r="15">
@@ -557,7 +557,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9999999999999852</v>
+        <v>1.000000000000006</v>
       </c>
     </row>
     <row r="17">
@@ -565,7 +565,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -573,7 +573,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9999999999999759</v>
+        <v>1.000000000000048</v>
       </c>
     </row>
     <row r="19">
@@ -581,7 +581,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.00000000000004</v>
+        <v>1.000000000000078</v>
       </c>
     </row>
     <row r="20">
@@ -589,7 +589,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9994179516376669</v>
+        <v>0.9994179516376643</v>
       </c>
     </row>
     <row r="21">
@@ -597,7 +597,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9481818119010812</v>
+        <v>0.9481818119010816</v>
       </c>
     </row>
     <row r="22">
@@ -605,7 +605,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.000000000000006</v>
+        <v>0.9999999999999976</v>
       </c>
     </row>
     <row r="23">
@@ -621,7 +621,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9791021075199539</v>
+        <v>0.9791021075199541</v>
       </c>
     </row>
     <row r="25">
@@ -637,7 +637,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.999999999999991</v>
+        <v>0.9999999999999982</v>
       </c>
     </row>
     <row r="27">
@@ -645,7 +645,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9999999999999913</v>
+        <v>0.9999999999999926</v>
       </c>
     </row>
     <row r="28">
@@ -653,7 +653,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9999999999999861</v>
+        <v>1.000000000000012</v>
       </c>
     </row>
     <row r="29">
@@ -661,7 +661,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9952737491558959</v>
+        <v>0.9952737491558965</v>
       </c>
     </row>
     <row r="30">
@@ -669,7 +669,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9999999999999974</v>
+        <v>0.999999999999998</v>
       </c>
     </row>
     <row r="31">
@@ -677,7 +677,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9999618080226769</v>
+        <v>0.9999618080226779</v>
       </c>
     </row>
     <row r="32">
@@ -685,7 +685,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9999999999999943</v>
+        <v>0.9999999999999917</v>
       </c>
     </row>
     <row r="33">
@@ -693,7 +693,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.000000000000001</v>
+        <v>1.000000000000002</v>
       </c>
     </row>
     <row r="34">
@@ -701,7 +701,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.8945683554023364</v>
+        <v>0.8945683554023154</v>
       </c>
     </row>
     <row r="35">
@@ -709,7 +709,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.000000000000003</v>
+        <v>0.9999999999999946</v>
       </c>
     </row>
     <row r="36">
@@ -717,7 +717,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9944241533583243</v>
+        <v>0.9944241533583241</v>
       </c>
     </row>
     <row r="37">
@@ -725,7 +725,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.8332023450352858</v>
+        <v>0.8332023450352977</v>
       </c>
     </row>
     <row r="38">
@@ -733,7 +733,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9975848887021478</v>
+        <v>0.9975848887021573</v>
       </c>
     </row>
     <row r="39">
@@ -741,7 +741,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9488568782245497</v>
+        <v>0.9488568782245502</v>
       </c>
     </row>
     <row r="40">
@@ -749,7 +749,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9106617653095114</v>
+        <v>0.9106617653095079</v>
       </c>
     </row>
     <row r="41">
@@ -757,7 +757,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9662026462455595</v>
+        <v>0.9662026462455575</v>
       </c>
     </row>
     <row r="42">
@@ -765,7 +765,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9999999999999811</v>
+        <v>1.000000000000005</v>
       </c>
     </row>
     <row r="43">
@@ -773,7 +773,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9999999999999978</v>
+        <v>0.9999999999999973</v>
       </c>
     </row>
     <row r="44">
@@ -781,7 +781,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9999999999999735</v>
+        <v>0.9999999999999889</v>
       </c>
     </row>
     <row r="45">
@@ -789,7 +789,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9972557920979058</v>
+        <v>0.9972557920979136</v>
       </c>
     </row>
     <row r="46">
@@ -805,7 +805,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -813,7 +813,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.000000000000013</v>
+        <v>0.9999999999999872</v>
       </c>
     </row>
     <row r="49">
@@ -821,7 +821,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9999999999999982</v>
+        <v>0.9999999999999974</v>
       </c>
     </row>
     <row r="50">
@@ -829,7 +829,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.999999999999994</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="51">
@@ -845,7 +845,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.9997564206376658</v>
+        <v>0.999756420637664</v>
       </c>
     </row>
     <row r="53">
@@ -853,7 +853,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.6354186972246807</v>
+        <v>0.6354186972246855</v>
       </c>
     </row>
     <row r="54">
@@ -861,7 +861,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.999999999999999</v>
+        <v>1.000000000000004</v>
       </c>
     </row>
     <row r="55">
@@ -869,7 +869,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.000000000000006</v>
+        <v>0.999999999999988</v>
       </c>
     </row>
     <row r="56">
@@ -877,7 +877,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.9999999999999786</v>
+        <v>0.9999999999999818</v>
       </c>
     </row>
     <row r="57">
@@ -885,7 +885,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.9943091067642341</v>
+        <v>0.994309106764229</v>
       </c>
     </row>
     <row r="58">
@@ -893,7 +893,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.000000000000006</v>
+        <v>0.9999999999999908</v>
       </c>
     </row>
     <row r="59">
@@ -901,7 +901,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.9999999999999891</v>
       </c>
     </row>
     <row r="60">
@@ -909,7 +909,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.000000000000004</v>
+        <v>0.9999999999999982</v>
       </c>
     </row>
     <row r="61">
@@ -917,7 +917,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.855901254927618</v>
+        <v>0.8559012549276118</v>
       </c>
     </row>
     <row r="62">
@@ -925,7 +925,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8647896437378673</v>
+        <v>0.8647896437378662</v>
       </c>
     </row>
     <row r="63">
@@ -933,7 +933,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.00000000000001</v>
+        <v>1.000000000000006</v>
       </c>
     </row>
     <row r="64">
@@ -941,7 +941,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.7405143206104345</v>
+        <v>0.7405143206104325</v>
       </c>
     </row>
     <row r="65">
@@ -949,7 +949,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.8878719263665864</v>
+        <v>0.8878719263665872</v>
       </c>
     </row>
     <row r="66">
@@ -957,7 +957,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.9999999999999892</v>
+        <v>0.9999999999999951</v>
       </c>
     </row>
     <row r="67">
@@ -965,7 +965,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.9988337096891745</v>
+        <v>0.9988337096891754</v>
       </c>
     </row>
     <row r="68">
@@ -973,7 +973,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.9999999999999386</v>
+        <v>0.9999999999999561</v>
       </c>
     </row>
     <row r="69">
@@ -981,7 +981,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.9131669486690649</v>
+        <v>0.9131669486690647</v>
       </c>
     </row>
     <row r="70">
@@ -989,7 +989,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.9869834960406452</v>
+        <v>0.9869834960406462</v>
       </c>
     </row>
     <row r="71">
@@ -997,7 +997,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.000000000000017</v>
+        <v>1.00000000000001</v>
       </c>
     </row>
     <row r="72">
@@ -1005,7 +1005,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.9982849290848272</v>
+        <v>0.9982849290848517</v>
       </c>
     </row>
     <row r="73">
@@ -1013,7 +1013,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.000000000000001</v>
+        <v>1.000000000000017</v>
       </c>
     </row>
     <row r="74">
@@ -1021,7 +1021,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.000000000000001</v>
+        <v>1.000000000000004</v>
       </c>
     </row>
     <row r="75">
@@ -1029,7 +1029,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.9997932367696666</v>
+        <v>0.999793236769662</v>
       </c>
     </row>
     <row r="76">
@@ -1037,7 +1037,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.9996594439507503</v>
+        <v>0.9996594439507519</v>
       </c>
     </row>
     <row r="77">
@@ -1045,7 +1045,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.9012060620453791</v>
+        <v>0.9012060620453785</v>
       </c>
     </row>
     <row r="78">
@@ -1053,7 +1053,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.9099312926636985</v>
+        <v>0.9099312926636755</v>
       </c>
     </row>
     <row r="79">
@@ -1061,7 +1061,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000002</v>
       </c>
     </row>
     <row r="80">
@@ -1069,7 +1069,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.902912367738923</v>
+        <v>0.902912367738916</v>
       </c>
     </row>
     <row r="81">
@@ -1077,7 +1077,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -1085,7 +1085,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.9971858572942678</v>
+        <v>0.9971858572942667</v>
       </c>
     </row>
     <row r="83">
@@ -1093,7 +1093,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.000000000000003</v>
+        <v>1.000000000000002</v>
       </c>
     </row>
     <row r="84">
@@ -1101,7 +1101,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.9999999999999833</v>
+        <v>1.000000000000005</v>
       </c>
     </row>
     <row r="85">
@@ -1109,7 +1109,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.9866199999278816</v>
+        <v>0.9866199999278845</v>
       </c>
     </row>
     <row r="86">
@@ -1117,7 +1117,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.950859372839861</v>
+        <v>0.950859372839858</v>
       </c>
     </row>
     <row r="87">
@@ -1125,7 +1125,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.9999999999999941</v>
+        <v>0.9999999999999903</v>
       </c>
     </row>
     <row r="88">
@@ -1133,7 +1133,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9959897049352066</v>
+        <v>0.9959897049351779</v>
       </c>
     </row>
     <row r="89">
@@ -1141,7 +1141,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.9999999999999984</v>
+        <v>0.9999999999999994</v>
       </c>
     </row>
     <row r="90">
@@ -1149,7 +1149,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.000000000000002</v>
+        <v>1.000000000000004</v>
       </c>
     </row>
     <row r="91">
@@ -1157,7 +1157,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="92">
@@ -1165,7 +1165,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.9999999999999911</v>
+        <v>0.9999999999999885</v>
       </c>
     </row>
     <row r="93">
@@ -1173,7 +1173,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.9999999999999863</v>
+        <v>0.9999999999999953</v>
       </c>
     </row>
     <row r="94">
@@ -1181,7 +1181,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.9994125933120948</v>
+        <v>0.9994125933120951</v>
       </c>
     </row>
     <row r="95">
@@ -1189,7 +1189,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.987537962674642</v>
+        <v>0.9875379626745258</v>
       </c>
     </row>
     <row r="96">
@@ -1197,7 +1197,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.8557692321506446</v>
+        <v>0.855769232150643</v>
       </c>
     </row>
     <row r="97">
@@ -1205,7 +1205,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.9838838096735474</v>
+        <v>0.9838838096735407</v>
       </c>
     </row>
     <row r="98">
@@ -1213,7 +1213,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>1.000000000000005</v>
       </c>
     </row>
     <row r="99">
@@ -1221,7 +1221,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.9677430991882306</v>
+        <v>0.9677430991882247</v>
       </c>
     </row>
     <row r="100">
@@ -1237,7 +1237,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.9999999999999979</v>
+        <v>0.9999999999999973</v>
       </c>
     </row>
   </sheetData>
